--- a/Soluciones_relaciones.xlsx
+++ b/Soluciones_relaciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manug\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7f3f8e23c5cac0d/Documentos/CAM_Windows/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B3B578-A4E3-483D-A83A-30D3941B0992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{39B3B578-A4E3-483D-A83A-30D3941B0992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A30DD582-AD9C-4CB2-9C09-E67851C19B56}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FED78069-A3F7-419D-8389-CE159189C45F}"/>
+    <workbookView xWindow="75" yWindow="1260" windowWidth="16065" windowHeight="11385" xr2:uid="{FED78069-A3F7-419D-8389-CE159189C45F}"/>
   </bookViews>
   <sheets>
     <sheet name="Solucion 1 " sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t xml:space="preserve">Almacenar en memoria las relaciones en base a una búsqueda en profundidad, sin hacer volcado por lotes </t>
   </si>
@@ -90,13 +90,16 @@
   </si>
   <si>
     <t>DESCARTAREMOS ESTA SOLUCIÓN: Nuestro objetivo aquí es disminuir el numero de memorias necesarias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HASTA EL MOMENTO, ESTA ES LA SOLUCIÓN POR LA QUE ESTAMOS OPTANDO. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +150,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -193,18 +203,19 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Énfasis1" xfId="4" builtinId="30"/>
@@ -525,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A26544-FAA8-43BC-A370-260B9CE0A4AE}">
   <dimension ref="A3:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,112 +562,112 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="5">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="5">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="6">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>6</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
-        <v>3</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5">
         <v>7</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="5">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
         <v>8</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="B12" s="6">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6">
         <v>32</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6">
         <v>54</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="B14" s="6">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6">
         <v>12</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -673,6 +684,11 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -714,68 +730,68 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="6">
-        <v>4</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="8">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
         <v>6</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="8">
-        <v>4</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C9" s="7">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
         <v>7</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -804,38 +820,38 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>2</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>2</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="7">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="7">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -861,7 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D240A99D-F3D0-4EB2-B595-FAC756C17299}">
   <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -874,22 +890,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -909,52 +925,52 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="5">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="5">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8">
-        <v>5</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>5</v>
       </c>
       <c r="E8">
@@ -965,10 +981,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>6</v>
       </c>
       <c r="E9">
@@ -1007,10 +1023,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
-        <v>5</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B12" s="7">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7">
         <v>9</v>
       </c>
       <c r="E12">
